--- a/Assets/Excel/play_poker_level.xlsx
+++ b/Assets/Excel/play_poker_level.xlsx
@@ -7,9 +7,7 @@
     <workbookView windowWidth="22176" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="play_locklink" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,34 +26,186 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+此列不要填内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 = 通用
+1 = 服务端用
+2 = 客户端用
+3 = 策划用</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>maxnum</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>posX</t>
-  </si>
-  <si>
-    <t>posY</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CardPublic</t>
+  </si>
+  <si>
+    <t>PublicCardPosX</t>
+  </si>
+  <si>
+    <t>PublicCardPosY</t>
+  </si>
+  <si>
+    <t>CardTable</t>
+  </si>
+  <si>
+    <t>CardOwn</t>
+  </si>
+  <si>
+    <t>OwnCardPosX</t>
+  </si>
+  <si>
+    <t>OwnCardPosY</t>
+  </si>
+  <si>
+    <t>CardMaxNum</t>
+  </si>
+  <si>
+    <t>CardTargetType</t>
+  </si>
+  <si>
+    <t>ChallengeTime</t>
+  </si>
+  <si>
+    <t>LockCard</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>intArray</t>
+  </si>
+  <si>
+    <t>floatArray</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
   <si>
     <t>Int</t>
   </si>
   <si>
-    <t>IntArray</t>
-  </si>
-  <si>
-    <t>FloatArray</t>
+    <t>注释1</t>
+  </si>
+  <si>
+    <t>流水ID</t>
+  </si>
+  <si>
+    <t>公共牌</t>
+  </si>
+  <si>
+    <t>X坐标</t>
+  </si>
+  <si>
+    <t>Y坐标</t>
+  </si>
+  <si>
+    <t>牌桌背景</t>
+  </si>
+  <si>
+    <t>玩家手牌</t>
+  </si>
+  <si>
+    <t>玩家最大手牌上限</t>
+  </si>
+  <si>
+    <t>目标卡牌</t>
+  </si>
+  <si>
+    <t>挑战次数</t>
+  </si>
+  <si>
+    <t>锁定牌</t>
+  </si>
+  <si>
+    <t>注释2</t>
+  </si>
+  <si>
+    <t>填入play_poker表中的卡牌ID</t>
+  </si>
+  <si>
+    <t>每张公共牌的X坐标</t>
+  </si>
+  <si>
+    <t>每张公共牌的Y坐标</t>
+  </si>
+  <si>
+    <t>每个玩法关卡可以对应不同的牌桌背景</t>
+  </si>
+  <si>
+    <t>填入玩家初始手牌ID</t>
+  </si>
+  <si>
+    <t>每张玩家手牌的X坐标</t>
+  </si>
+  <si>
+    <t>每张玩家手牌的Y坐标</t>
+  </si>
+  <si>
+    <t>填入玩家最大手牌,
+这会影响玩家可以选择
+卡牌的数量</t>
+  </si>
+  <si>
+    <t>填入目标牌型类型</t>
+  </si>
+  <si>
+    <t>玩家失败后可以再次挑战的次数</t>
+  </si>
+  <si>
+    <t>锁定该位置的手牌</t>
   </si>
   <si>
     <t>id|id</t>
@@ -65,6 +215,27 @@
   </si>
   <si>
     <t>10.5|20.5</t>
+  </si>
+  <si>
+    <t>path1</t>
+  </si>
+  <si>
+    <t>1|1</t>
+  </si>
+  <si>
+    <t>path2</t>
+  </si>
+  <si>
+    <t>path3</t>
+  </si>
+  <si>
+    <t>path4</t>
+  </si>
+  <si>
+    <t>path5</t>
+  </si>
+  <si>
+    <t>path6</t>
   </si>
 </sst>
 </file>
@@ -77,13 +248,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -229,8 +406,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,13 +427,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,12 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,12 +642,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,147 +783,169 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,6 +1001,13 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="0000B0F0"/>
+      <color rgb="00000000"/>
+      <color rgb="0070AD47"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -767,9 +1017,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -783,31 +1033,31 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -879,40 +1129,66 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -926,38 +1202,20 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -1016,219 +1274,419 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <cols>
+    <col min="1" max="1" width="6.12962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.12962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.8796296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3796296296296" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31.2" spans="1:13">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="117.95" customHeight="1" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="115.2" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="11">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="11">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="11">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="11">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="11">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Excel/play_poker_level.xlsx
+++ b/Assets/Excel/play_poker_level.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="22176" windowHeight="9780"/>
   </bookViews>
@@ -84,54 +84,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>PublicCardPosX</t>
+  </si>
+  <si>
+    <t>PublicCardPosY</t>
+  </si>
+  <si>
+    <t>CardTable</t>
+  </si>
+  <si>
+    <t>OwnCardPosX</t>
+  </si>
+  <si>
+    <t>OwnCardPosY</t>
+  </si>
+  <si>
+    <t>ShowCardNum</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>NPCChips</t>
+  </si>
+  <si>
+    <t>NPCPosX</t>
+  </si>
+  <si>
+    <t>NPCPosY</t>
+  </si>
+  <si>
+    <t>CardTargetType</t>
+  </si>
+  <si>
+    <t>Bet</t>
+  </si>
+  <si>
+    <t>CardOwn</t>
+  </si>
+  <si>
+    <t>NpcOwn</t>
+  </si>
+  <si>
+    <t>ChallengeTime</t>
+  </si>
+  <si>
     <t>CardPublic</t>
   </si>
   <si>
-    <t>PublicCardPosX</t>
-  </si>
-  <si>
-    <t>PublicCardPosY</t>
-  </si>
-  <si>
-    <t>CardTable</t>
-  </si>
-  <si>
-    <t>CardOwn</t>
-  </si>
-  <si>
-    <t>OwnCardPosX</t>
-  </si>
-  <si>
-    <t>OwnCardPosY</t>
-  </si>
-  <si>
-    <t>CardMaxNum</t>
-  </si>
-  <si>
-    <t>CardTargetType</t>
-  </si>
-  <si>
-    <t>ChallengeTime</t>
-  </si>
-  <si>
-    <t>LockCard</t>
+    <t>BaseChips</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>floatArray</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
     <t>intArray</t>
   </si>
   <si>
-    <t>floatArray</t>
-  </si>
-  <si>
-    <t>String</t>
+    <t>stringArray</t>
   </si>
   <si>
     <t>Int</t>
@@ -143,39 +164,54 @@
     <t>流水ID</t>
   </si>
   <si>
+    <t>X坐标</t>
+  </si>
+  <si>
+    <t>Y坐标</t>
+  </si>
+  <si>
+    <t>牌桌背景</t>
+  </si>
+  <si>
+    <t>需要展示的卡牌数量</t>
+  </si>
+  <si>
+    <t>参与游戏的npc</t>
+  </si>
+  <si>
+    <t>npc剩余筹码</t>
+  </si>
+  <si>
+    <t>NPC的x坐标</t>
+  </si>
+  <si>
+    <t>NPC的y坐标</t>
+  </si>
+  <si>
+    <t>获胜需要大于的目标牌型点数</t>
+  </si>
+  <si>
+    <t>参与消耗资源</t>
+  </si>
+  <si>
+    <t>玩家手牌</t>
+  </si>
+  <si>
+    <t>NPC手牌</t>
+  </si>
+  <si>
+    <t>挑战次数</t>
+  </si>
+  <si>
     <t>公共牌</t>
   </si>
   <si>
-    <t>X坐标</t>
-  </si>
-  <si>
-    <t>Y坐标</t>
-  </si>
-  <si>
-    <t>牌桌背景</t>
-  </si>
-  <si>
-    <t>玩家手牌</t>
-  </si>
-  <si>
-    <t>玩家最大手牌上限</t>
-  </si>
-  <si>
-    <t>目标卡牌</t>
-  </si>
-  <si>
-    <t>挑战次数</t>
-  </si>
-  <si>
-    <t>锁定牌</t>
+    <t>基础筹码</t>
   </si>
   <si>
     <t>注释2</t>
   </si>
   <si>
-    <t>填入play_poker表中的卡牌ID</t>
-  </si>
-  <si>
     <t>每张公共牌的X坐标</t>
   </si>
   <si>
@@ -185,57 +221,93 @@
     <t>每个玩法关卡可以对应不同的牌桌背景</t>
   </si>
   <si>
-    <t>填入玩家初始手牌ID</t>
-  </si>
-  <si>
-    <t>每张玩家手牌的X坐标</t>
-  </si>
-  <si>
-    <t>每张玩家手牌的Y坐标</t>
-  </si>
-  <si>
-    <t>填入玩家最大手牌,
-这会影响玩家可以选择
-卡牌的数量</t>
-  </si>
-  <si>
-    <t>填入目标牌型类型</t>
+    <t>手牌卡槽的X坐标</t>
+  </si>
+  <si>
+    <t>手牌卡槽的Y坐标</t>
+  </si>
+  <si>
+    <t>对应回合数需要展示的卡牌数</t>
+  </si>
+  <si>
+    <t>填入目标牌型权重(至少大于该值才能过关)</t>
+  </si>
+  <si>
+    <t>参与所需
+消耗的筹码</t>
+  </si>
+  <si>
+    <t>填入玩家初始手牌ID(用于剧情模式固定手牌)</t>
+  </si>
+  <si>
+    <t>填入NPC初始手牌ID(用于剧情模式固定手牌)</t>
   </si>
   <si>
     <t>玩家失败后可以再次挑战的次数</t>
   </si>
   <si>
-    <t>锁定该位置的手牌</t>
+    <t xml:space="preserve">填入play_poker表中的卡牌ID
+</t>
+  </si>
+  <si>
+    <t>填入1号位玩家可以投入的筹码数量</t>
+  </si>
+  <si>
+    <t>-140|0|140|-70|70</t>
+  </si>
+  <si>
+    <t>200|200|200|10|10</t>
+  </si>
+  <si>
+    <t>heitao.png</t>
+  </si>
+  <si>
+    <t>-70|70</t>
+  </si>
+  <si>
+    <t>-190|-190</t>
+  </si>
+  <si>
+    <t>3|1|1</t>
+  </si>
+  <si>
+    <t>夜长生|江玉书|素雪|赵活|瑞生</t>
+  </si>
+  <si>
+    <t>1000|1000|1000|1000|1000</t>
+  </si>
+  <si>
+    <t>200|2|2|510|510</t>
+  </si>
+  <si>
+    <t>400|-120|230|230|-120</t>
   </si>
   <si>
     <t>id|id</t>
   </si>
   <si>
-    <t>20.5|40.5</t>
-  </si>
-  <si>
-    <t>10.5|20.5</t>
-  </si>
-  <si>
-    <t>path1</t>
-  </si>
-  <si>
-    <t>1|1</t>
-  </si>
-  <si>
-    <t>path2</t>
-  </si>
-  <si>
-    <t>path3</t>
-  </si>
-  <si>
-    <t>path4</t>
-  </si>
-  <si>
-    <t>path5</t>
-  </si>
-  <si>
-    <t>path6</t>
+    <t>id|id|id|id</t>
+  </si>
+  <si>
+    <t>id|id|id|id|id</t>
+  </si>
+  <si>
+    <t>50|100|150</t>
+  </si>
+  <si>
+    <t>夜长生|江玉书|素雪|赵活</t>
+  </si>
+  <si>
+    <t>1000|1000|1000</t>
+  </si>
+  <si>
+    <t>夜长生|江玉书|素雪</t>
+  </si>
+  <si>
+    <t>夜长生|江玉书</t>
+  </si>
+  <si>
+    <t>夜长生</t>
   </si>
 </sst>
 </file>
@@ -418,7 +490,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,12 +518,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +855,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -813,16 +879,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -831,94 +897,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,19 +999,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1273,30 +1345,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.12962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.12962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6296296296296" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.8796296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3796296296296" style="1" customWidth="1"/>
-    <col min="10" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1111111111111" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.77777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.4444444444444" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.3333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.2" spans="1:13">
+    <row r="1" ht="31.2" spans="1:20">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1322,7 +1401,7 @@
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1331,358 +1410,560 @@
       <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1"/>
+      <c r="N1" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="O1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" ht="15.6" spans="1:13">
+    <row r="2" ht="15.6" spans="1:20">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" ht="117.95" customHeight="1" spans="1:13">
+    <row r="3" ht="117.95" customHeight="1" spans="1:20">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="4" ht="115.2" spans="1:13">
+    <row r="4" ht="93.6" spans="1:20">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4"/>
+      <c r="N4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
-      <c r="B5">
+    <row r="5" spans="1:20">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" s="11">
+        <v>4</v>
+      </c>
+      <c r="O5" s="11">
+        <v>300</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="11">
+        <v>2</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" s="11">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="O6" s="11">
+        <v>300</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="11">
+        <v>2</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" s="11">
+        <v>6</v>
+      </c>
+      <c r="O7" s="11">
+        <v>300</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="11">
+        <v>2</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="L5" s="1">
+      <c r="C8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8" s="11">
+        <v>7</v>
+      </c>
+      <c r="O8" s="11">
+        <v>300</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="11">
         <v>2</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>44</v>
+      <c r="S8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
-      <c r="B6">
+    <row r="9" spans="1:20">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9" s="11">
+        <v>8</v>
+      </c>
+      <c r="O9" s="11">
+        <v>300</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="11">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="11">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="S9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11">
+        <v>300</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="11">
         <v>2</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>44</v>
+      <c r="S10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="11">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="11">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="11">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="11">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="11" spans="1:12">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
